--- a/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output_deprecated-format.xlsx
+++ b/test-files/demo-files/21-genes_31-edges_Schade-data_estimation_output_deprecated-format.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdahlqui\Desktop\GRNsight\Manuscript 2025-2026\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{016C68FF-18AC-4941-9733-816A4810FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="26715" windowHeight="14565" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +21,7 @@
     <sheet name="network_optimized_weights" sheetId="12" r:id="rId12"/>
     <sheet name="concentration_sigmas" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -175,34 +169,20 @@
     <t>time</t>
   </si>
   <si>
-    <t>b</t>
+    <t>rows genes affected/cols genes controlling</t>
   </si>
   <si>
-    <t>cols regulators/rows targets</t>
+    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,11 +208,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -243,17 +220,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -291,7 +265,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -363,7 +337,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -548,99 +522,102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
+      <c r="A1" t="s">
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -685,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-2.3514515608917513E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -708,7 +685,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -765,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-4.2985429780012276E-3</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-0.38624552336188939</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -776,7 +753,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -784,8 +761,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>-0.8996511802531113</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -797,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.39937697108766507</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -820,11 +797,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <v>-0.22265277936169836</v>
+      <c r="P4">
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-3.542421905660554E-2</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -844,7 +821,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -877,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.15412923517892946</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -906,13 +883,13 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2">
-        <v>-2.3514515608917513E-2</v>
+      <c r="V5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -939,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-4.2985429780012276E-3</v>
+        <v>-0.56427459214233033</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -953,8 +930,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
-        <v>-0.38624552336188939</v>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -980,10 +957,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-3.542421905660554E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.5757567365376377</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1015,8 +992,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.39937697108766507</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1028,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-2.4842397030421965</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1048,7 +1025,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1075,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.82087439304454191</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1095,20 +1072,20 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0.15412923517892946</v>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.1327684770336084</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>5.9553955918487389E-2</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1116,7 +1093,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1140,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.83975564758623178</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1179,12 +1156,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-0.14286868649613396</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1211,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.69096132225449591</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1228,8 +1205,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>-0.56427459214233033</v>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1252,7 +1229,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1279,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.22265277936169836</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.8996511802531113</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1320,10 +1297,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-2.4842397030421965</v>
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1331,11 +1308,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.5757567365376377</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>6.1917390514168039E-3</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1388,10 +1365,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.73244365573264869</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1411,8 +1388,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <v>1.1327684770336084</v>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1429,11 +1406,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
-        <v>5.9553955918487389E-2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0.82087439304454191</v>
+      <c r="O13">
+        <v>-0.15618188320482398</v>
+      </c>
+      <c r="P13">
+        <v>-0.42315373918803745</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1451,12 +1428,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.5420485402062647</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1483,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.1928081309101652</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1494,8 +1471,8 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="2">
-        <v>0.83975564758623178</v>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1512,8 +1489,8 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="2">
-        <v>-0.14286868649613396</v>
+      <c r="T14">
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1524,7 +1501,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1575,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-1.0326913096587651</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -1587,18 +1564,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-0.1323464725248332</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.41636565981609769</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-7.6164083342736888E-2</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1616,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.52856732884138802</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1628,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-0.63500590553074698</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>-0.69096132225449591</v>
+        <v>7.5648134719757384E-2</v>
+      </c>
+      <c r="P16">
+        <v>-0.14781774867848457</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1660,7 +1637,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1686,8 +1663,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
-        <v>6.1917390514168039E-3</v>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1728,7 +1705,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1739,8 +1716,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>-0.73244365573264869</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1784,19 +1761,19 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="2">
-        <v>0.5420485402062647</v>
-      </c>
-      <c r="U18" s="2">
-        <v>-0.15618188320482398</v>
-      </c>
-      <c r="V18" s="2">
-        <v>-0.42315373918803745</v>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1840,8 +1817,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="2">
-        <v>1.1928081309101652</v>
+      <c r="P19">
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1864,7 +1841,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1932,13 +1909,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
-        <v>-1.0326913096587651</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1988,8 +1965,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="2">
-        <v>-0.1323464725248332</v>
+      <c r="T21">
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2000,7 +1977,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2011,11 +1988,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>-0.41636565981609769</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-7.6164083342736888E-2</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2038,8 +2015,8 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.52856732884138802</v>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2050,8 +2027,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="2">
-        <v>-0.63500590553074698</v>
+      <c r="R22">
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2059,31 +2036,30 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" s="2">
-        <v>7.5648134719757384E-2</v>
-      </c>
-      <c r="V22" s="2">
-        <v>-0.14781774867848457</v>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:V22">
-    <sortCondition ref="B1:V1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2093,213 +2069,213 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.86375907025127707</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-8.4512094623483261E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.18435844242715063</v>
+        <v>-2.7036238635246637E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0.86375907025127707</v>
+        <v>0.31799160987778807</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>-8.4512094623483261E-2</v>
+        <v>2.0785480271819798</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>-2.7036238635246637E-2</v>
+        <v>0.30848217294835073</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.31799160987778807</v>
+        <v>0.59772497124282109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.91436086323291665</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>2.0785480271819798</v>
+        <v>-8.3565942702706703E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.18435844242715063</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.30848217294835073</v>
+        <v>-0.19668331979958451</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0.59772497124282109</v>
+        <v>-1.8473389582098459E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.91436086323291665</v>
+        <v>-1.0934878631044176</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.5145734224690381</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>-8.3565942702706703E-2</v>
+        <v>0.35275459473035098</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>-0.19668331979958451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>-1.8473389582098459E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>-1.0934878631044176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2307,128 +2283,126 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>1.5145734224690381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.35275459473035098</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>48</v>
+      <c r="A1" t="s">
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2473,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>-4.5031549633143472E-2</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2496,7 +2470,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2553,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-0.18820887875915027</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>-0.65095528818924187</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -2564,7 +2538,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2572,8 +2546,8 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>-0.89655567768121591</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2585,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.61206654708051067</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2608,11 +2582,11 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <v>-0.40302862152830743</v>
+      <c r="P4">
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.15615434905189041</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2632,7 +2606,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2665,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.7845882338061265E-2</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -2694,13 +2668,13 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5" s="2">
-        <v>-4.5031549633143472E-2</v>
+      <c r="V5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2727,10 +2701,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-0.18820887875915027</v>
+        <v>-1.2320858786117657</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2741,8 +2715,8 @@
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6" s="2">
-        <v>-0.65095528818924187</v>
+      <c r="O6">
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2768,10 +2742,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.15615434905189041</v>
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.93929482644727347</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2803,8 +2777,8 @@
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" s="2">
-        <v>0.61206654708051067</v>
+      <c r="M7">
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2816,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-2.9706773606578425</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2836,7 +2810,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2863,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.013078893117209</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2883,20 +2857,20 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>7.7845882338061265E-2</v>
+      <c r="Q8">
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.4282638085007962</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.54468150571223883</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2904,7 +2878,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2928,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.2340986634476752</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2967,12 +2941,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-0.185164874102172</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2999,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.88904909468606708</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -3016,8 +2990,8 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="2">
-        <v>-1.2320858786117657</v>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3040,7 +3014,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3067,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>-0.40302862152830743</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.89655567768121591</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3108,10 +3082,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-2.9706773606578425</v>
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3119,11 +3093,11 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" s="2">
-        <v>0.93929482644727347</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-1.0194851212470761E-2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -3176,10 +3150,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-0.92778950125443505</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3199,8 +3173,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13" s="2">
-        <v>1.4282638085007962</v>
+      <c r="I13">
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3217,11 +3191,11 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" s="2">
-        <v>0.54468150571223883</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.013078893117209</v>
+      <c r="O13">
+        <v>-0.43150437543692094</v>
+      </c>
+      <c r="P13">
+        <v>-0.50707438551092265</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -3239,12 +3213,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>0.57442464534242077</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3271,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.4998823249016862</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -3282,8 +3256,8 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="2">
-        <v>1.2340986634476752</v>
+      <c r="N14">
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3300,8 +3274,8 @@
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14" s="2">
-        <v>-0.185164874102172</v>
+      <c r="T14">
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -3312,7 +3286,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3363,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>-1.3615135448898985</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -3375,18 +3349,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>-0.40819045291287759</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.53122367215985489</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-0.12925221861874403</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -3404,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.62145042255406946</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3416,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-0.75033136906382225</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>-0.88904909468606708</v>
+        <v>1.4592250590864119E-2</v>
+      </c>
+      <c r="P16">
+        <v>-0.30267311122041535</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3448,7 +3422,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3474,8 +3448,8 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
-        <v>-1.0194851212470761E-2</v>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3516,7 +3490,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3527,8 +3501,8 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" s="2">
-        <v>-0.92778950125443505</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -3572,19 +3546,19 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18" s="2">
-        <v>0.57442464534242077</v>
-      </c>
-      <c r="U18" s="2">
-        <v>-0.43150437543692094</v>
-      </c>
-      <c r="V18" s="2">
-        <v>-0.50707438551092265</v>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3628,8 +3602,8 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19" s="2">
-        <v>1.4998823249016862</v>
+      <c r="P19">
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3652,7 +3626,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3720,13 +3694,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" s="2">
-        <v>-1.3615135448898985</v>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3776,8 +3750,8 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21" s="2">
-        <v>-0.40819045291287759</v>
+      <c r="T21">
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3788,7 +3762,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3799,11 +3773,11 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" s="2">
-        <v>-0.53122367215985489</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-0.12925221861874403</v>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3826,8 +3800,8 @@
       <c r="M22">
         <v>0</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.62145042255406946</v>
+      <c r="N22">
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3838,8 +3812,8 @@
       <c r="Q22">
         <v>0</v>
       </c>
-      <c r="R22" s="2">
-        <v>-0.75033136906382225</v>
+      <c r="R22">
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3847,28 +3821,30 @@
       <c r="T22">
         <v>0</v>
       </c>
-      <c r="U22" s="2">
-        <v>1.4592250590864119E-2</v>
-      </c>
-      <c r="V22" s="2">
-        <v>-0.30267311122041535</v>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:V22">
-    <sortCondition ref="B1:V1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3892,434 +3868,431 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2.7177748798661061</v>
+        <v>1.1214181944663999</v>
       </c>
       <c r="D2">
-        <v>0.27986899329141984</v>
+        <v>0.55852538968895904</v>
       </c>
       <c r="E2">
-        <v>0.52274878365032373</v>
+        <v>0.35044008182832931</v>
       </c>
       <c r="F2">
-        <v>0.55774523004671794</v>
+        <v>0.70113230605848431</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.6586583874324683</v>
+        <v>0.57158812657450464</v>
       </c>
       <c r="D3">
-        <v>0.55974171992608035</v>
+        <v>0.47686276651665133</v>
       </c>
       <c r="E3">
-        <v>1.319442536378483</v>
+        <v>0.53273183755838238</v>
       </c>
       <c r="F3">
-        <v>1.28722744723447</v>
+        <v>0.64255017478057119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.10306041466144411</v>
+        <v>0.55180971487647335</v>
       </c>
       <c r="D4">
-        <v>0.48057607567481353</v>
+        <v>0.31090721363028317</v>
       </c>
       <c r="E4">
-        <v>0.92592442334034009</v>
+        <v>0.41359697197230688</v>
       </c>
       <c r="F4">
-        <v>0.61484906015845053</v>
+        <v>0.27838685574573035</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.1214181944663999</v>
+        <v>0.63754394609139609</v>
       </c>
       <c r="D5">
-        <v>0.55852538968895904</v>
+        <v>0.63813647210334568</v>
       </c>
       <c r="E5">
-        <v>0.35044008182832931</v>
+        <v>0.37092085908273081</v>
       </c>
       <c r="F5">
-        <v>0.70113230605848431</v>
+        <v>0.63214516421357758</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.57158812657450464</v>
+        <v>0.47237428919404129</v>
       </c>
       <c r="D6">
-        <v>0.47686276651665133</v>
+        <v>0.1253536405040945</v>
       </c>
       <c r="E6">
-        <v>0.53273183755838238</v>
+        <v>0.61688474848806962</v>
       </c>
       <c r="F6">
-        <v>0.64255017478057119</v>
+        <v>0.42823496437234221</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>0.55180971487647335</v>
+        <v>0.51768689267243395</v>
       </c>
       <c r="D7">
-        <v>0.31090721363028317</v>
+        <v>0.5694671676316122</v>
       </c>
       <c r="E7">
-        <v>0.41359697197230688</v>
+        <v>0.573163984104746</v>
       </c>
       <c r="F7">
-        <v>0.27838685574573035</v>
+        <v>4.8795433799243088E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.63754394609139609</v>
+        <v>0.70098949243155906</v>
       </c>
       <c r="D8">
-        <v>0.63813647210334568</v>
+        <v>0.35039020182799707</v>
       </c>
       <c r="E8">
-        <v>0.37092085908273081</v>
+        <v>0.83865738454812822</v>
       </c>
       <c r="F8">
-        <v>0.63214516421357758</v>
+        <v>0.49603588739778276</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.75068184269056393</v>
+        <v>0.95032614185344622</v>
       </c>
       <c r="D9">
-        <v>0.5674254331903027</v>
+        <v>0.63711583591311149</v>
       </c>
       <c r="E9">
-        <v>0.17203591027849979</v>
+        <v>1.340224716292816</v>
       </c>
       <c r="F9">
-        <v>0.83003274855249065</v>
+        <v>0.87095586318119766</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>0.47237428919404129</v>
+        <v>0.49738058221474313</v>
       </c>
       <c r="D10">
-        <v>0.1253536405040945</v>
+        <v>0.58058477549395449</v>
       </c>
       <c r="E10">
-        <v>0.61688474848806962</v>
+        <v>1.2096600128564565</v>
       </c>
       <c r="F10">
-        <v>0.42823496437234221</v>
+        <v>0.32190956976908647</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.49087127359962673</v>
+        <v>0.10306041466144411</v>
       </c>
       <c r="D11">
-        <v>0.52381980970726594</v>
+        <v>0.48057607567481353</v>
       </c>
       <c r="E11">
-        <v>0.70269830091504848</v>
+        <v>0.92592442334034009</v>
       </c>
       <c r="F11">
-        <v>0.29430825608901451</v>
+        <v>0.61484906015845053</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.51768689267243395</v>
+        <v>0.92772462709714409</v>
       </c>
       <c r="D12">
-        <v>0.5694671676316122</v>
+        <v>0.68824724177465868</v>
       </c>
       <c r="E12">
-        <v>0.573163984104746</v>
+        <v>0.4836055653146335</v>
       </c>
       <c r="F12">
-        <v>4.8795433799243088E-2</v>
+        <v>0.55944943488351928</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0.70098949243155906</v>
+        <v>8.5967040250942206E-2</v>
       </c>
       <c r="D13">
-        <v>0.35039020182799707</v>
+        <v>0.40660154548362171</v>
       </c>
       <c r="E13">
-        <v>0.83865738454812822</v>
+        <v>0.52373427911532888</v>
       </c>
       <c r="F13">
-        <v>0.49603588739778276</v>
+        <v>0.60909208857869224</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.95032614185344622</v>
+        <v>0.30443390807943443</v>
       </c>
       <c r="D14">
-        <v>0.63711583591311149</v>
+        <v>0.58313579961105511</v>
       </c>
       <c r="E14">
-        <v>1.340224716292816</v>
+        <v>0.60087124890148358</v>
       </c>
       <c r="F14">
-        <v>0.87095586318119766</v>
+        <v>0.18767426433518369</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>0.78318104487840923</v>
+        <v>2.1208263903979594</v>
       </c>
       <c r="D15">
-        <v>0.85545871714953736</v>
+        <v>0.70642644745686445</v>
       </c>
       <c r="E15">
-        <v>0.72016694852557961</v>
+        <v>0.6742254020177878</v>
       </c>
       <c r="F15">
-        <v>0.14488756926375135</v>
+        <v>1.0858535453491927</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>0.49738058221474313</v>
+        <v>0.53109793978089415</v>
       </c>
       <c r="D16">
-        <v>0.58058477549395449</v>
+        <v>1.7313088101174661</v>
       </c>
       <c r="E16">
-        <v>1.2096600128564565</v>
+        <v>0.58748476905001557</v>
       </c>
       <c r="F16">
-        <v>0.32190956976908647</v>
+        <v>0.31773877344830698</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>0.92772462709714409</v>
+        <v>2.7177748798661061</v>
       </c>
       <c r="D17">
-        <v>0.68824724177465868</v>
+        <v>0.27986899329141984</v>
       </c>
       <c r="E17">
-        <v>0.4836055653146335</v>
+        <v>0.52274878365032373</v>
       </c>
       <c r="F17">
-        <v>0.55944943488351928</v>
+        <v>0.55774523004671794</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>8.5967040250942206E-2</v>
+        <v>0.6586583874324683</v>
       </c>
       <c r="D18">
-        <v>0.40660154548362171</v>
+        <v>0.55974171992608035</v>
       </c>
       <c r="E18">
-        <v>0.52373427911532888</v>
+        <v>1.319442536378483</v>
       </c>
       <c r="F18">
-        <v>0.60909208857869224</v>
+        <v>1.28722744723447</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>0.30443390807943443</v>
+        <v>0.75068184269056393</v>
       </c>
       <c r="D19">
-        <v>0.58313579961105511</v>
+        <v>0.5674254331903027</v>
       </c>
       <c r="E19">
-        <v>0.60087124890148358</v>
+        <v>0.17203591027849979</v>
       </c>
       <c r="F19">
-        <v>0.18767426433518369</v>
+        <v>0.83003274855249065</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>1.4653540440729975</v>
+        <v>0.49087127359962673</v>
       </c>
       <c r="D20">
-        <v>0.31089283552347502</v>
+        <v>0.52381980970726594</v>
       </c>
       <c r="E20">
-        <v>0.82435352899221048</v>
+        <v>0.70269830091504848</v>
       </c>
       <c r="F20">
-        <v>0.80815140874532154</v>
+        <v>0.29430825608901451</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>2.1208263903979594</v>
+        <v>0.78318104487840923</v>
       </c>
       <c r="D21">
-        <v>0.70642644745686445</v>
+        <v>0.85545871714953736</v>
       </c>
       <c r="E21">
-        <v>0.6742254020177878</v>
+        <v>0.72016694852557961</v>
       </c>
       <c r="F21">
-        <v>1.0858535453491927</v>
+        <v>0.14488756926375135</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.53109793978089415</v>
+        <v>1.4653540440729975</v>
       </c>
       <c r="D22">
-        <v>1.7313088101174661</v>
+        <v>0.31089283552347502</v>
       </c>
       <c r="E22">
-        <v>0.58748476905001557</v>
+        <v>0.82435352899221048</v>
       </c>
       <c r="F22">
-        <v>0.31773877344830698</v>
+        <v>0.80815140874532154</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4331,7 +4304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4343,12 +4316,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4372,439 +4350,442 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.62100239431284</v>
+        <v>-0.23499151639564886</v>
       </c>
       <c r="D2">
-        <v>-0.353687539565399</v>
+        <v>-7.4111312717806896E-2</v>
       </c>
       <c r="E2">
-        <v>-0.26904411992483118</v>
+        <v>-4.5672082000020486E-2</v>
       </c>
       <c r="F2">
-        <v>-1.2538405721454773</v>
+        <v>0.48435089511121021</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>-0.54236208810543562</v>
+        <v>0.4326416512725948</v>
       </c>
       <c r="D3">
-        <v>-2.4845402327842971E-2</v>
+        <v>-3.0668487916819701E-2</v>
       </c>
       <c r="E3">
-        <v>-0.41536949244534521</v>
+        <v>-0.16312292236414141</v>
       </c>
       <c r="F3">
-        <v>-0.34874733011964443</v>
+        <v>-0.81793317594908443</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.32846952226326981</v>
+        <v>-0.54635409361384002</v>
       </c>
       <c r="D4">
-        <v>0.39646443321930358</v>
+        <v>-0.17770217544002159</v>
       </c>
       <c r="E4">
-        <v>0.11581866203986679</v>
+        <v>-0.23678158387819867</v>
       </c>
       <c r="F4">
-        <v>5.8441255712988402E-2</v>
+        <v>-0.75147912525362393</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>-0.23499151639564886</v>
+        <v>-0.33742354680821629</v>
       </c>
       <c r="D5">
-        <v>-7.4111312717806896E-2</v>
+        <v>-0.18941776396225327</v>
       </c>
       <c r="E5">
-        <v>-4.5672082000020486E-2</v>
+        <v>0.12236189160414897</v>
       </c>
       <c r="F5">
-        <v>0.48435089511121021</v>
+        <v>0.8561782188284095</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.4326416512725948</v>
+        <v>-3.8567306292018968E-3</v>
       </c>
       <c r="D6">
-        <v>-3.0668487916819701E-2</v>
+        <v>-0.14598311750820731</v>
       </c>
       <c r="E6">
-        <v>-0.16312292236414141</v>
+        <v>-0.77987217081516391</v>
       </c>
       <c r="F6">
-        <v>-0.81793317594908443</v>
+        <v>-0.37427042872419891</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>-0.54635409361384002</v>
+        <v>-0.14157029879722779</v>
       </c>
       <c r="D7">
-        <v>-0.17770217544002159</v>
+        <v>-0.41393783531037709</v>
       </c>
       <c r="E7">
-        <v>-0.23678158387819867</v>
+        <v>8.9308435643215237E-2</v>
       </c>
       <c r="F7">
-        <v>-0.75147912525362393</v>
+        <v>4.7013326873905102E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>-0.33742354680821629</v>
+        <v>-7.0669015655425342E-3</v>
       </c>
       <c r="D8">
-        <v>-0.18941776396225327</v>
+        <v>0.29688216043647697</v>
       </c>
       <c r="E8">
-        <v>0.12236189160414897</v>
+        <v>0.25764922912773286</v>
       </c>
       <c r="F8">
-        <v>0.8561782188284095</v>
+        <v>1.1248372482258766</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.19671308566348053</v>
+        <v>-0.44126548217999884</v>
       </c>
       <c r="D9">
-        <v>-0.21531120437807896</v>
+        <v>-0.1239172604895365</v>
       </c>
       <c r="E9">
-        <v>8.5925972742487422E-2</v>
+        <v>0.51530764708834054</v>
       </c>
       <c r="F9">
-        <v>-0.35846845614647627</v>
+        <v>-0.30259736113703295</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>-3.8567306292018968E-3</v>
+        <v>-0.22472535874945695</v>
       </c>
       <c r="D10">
-        <v>-0.14598311750820731</v>
+        <v>-2.2738389655590812E-2</v>
       </c>
       <c r="E10">
-        <v>-0.77987217081516391</v>
+        <v>0.33972787633317569</v>
       </c>
       <c r="F10">
-        <v>-0.37427042872419891</v>
+        <v>0.55135867455041376</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>-0.77986453280971368</v>
+        <v>-0.32846952226326981</v>
       </c>
       <c r="D11">
-        <v>-0.17741630704528819</v>
+        <v>0.39646443321930358</v>
       </c>
       <c r="E11">
-        <v>7.609436340254809E-2</v>
+        <v>0.11581866203986679</v>
       </c>
       <c r="F11">
-        <v>0.58491872133390754</v>
+        <v>5.8441255712988402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>-0.14157029879722779</v>
+        <v>7.5245867435778102E-2</v>
       </c>
       <c r="D12">
-        <v>-0.41393783531037709</v>
+        <v>0.1991566212270075</v>
       </c>
       <c r="E12">
-        <v>8.9308435643215237E-2</v>
+        <v>0.26671618423813243</v>
       </c>
       <c r="F12">
-        <v>4.7013326873905102E-2</v>
+        <v>0.34910882026688672</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-7.0669015655425342E-3</v>
+        <v>-0.35070290232852686</v>
       </c>
       <c r="D13">
-        <v>0.29688216043647697</v>
+        <v>-0.2928954490419074</v>
       </c>
       <c r="E13">
-        <v>0.25764922912773286</v>
+        <v>0.23433955268713946</v>
       </c>
       <c r="F13">
-        <v>1.1248372482258766</v>
+        <v>-0.21167047056013749</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>-0.44126548217999884</v>
+        <v>0.67656669842477513</v>
       </c>
       <c r="D14">
-        <v>-0.1239172604895365</v>
+        <v>1.1362539127863669</v>
       </c>
       <c r="E14">
-        <v>0.51530764708834054</v>
+        <v>0.89520225352892835</v>
       </c>
       <c r="F14">
-        <v>-0.30259736113703295</v>
+        <v>0.70320378879765943</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>-2.0643160241884395E-2</v>
+        <v>-0.65249310116925108</v>
       </c>
       <c r="D15">
-        <v>0.32467730369134934</v>
+        <v>0.18969540653388575</v>
       </c>
       <c r="E15">
-        <v>0.57068402112966743</v>
+        <v>0.30969695475694581</v>
       </c>
       <c r="F15">
-        <v>0.10759743563684412</v>
+        <v>1.3499275795365722</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>-0.22472535874945695</v>
+        <v>0.13453506928279035</v>
       </c>
       <c r="D16">
-        <v>-2.2738389655590812E-2</v>
+        <v>-0.25431053152681732</v>
       </c>
       <c r="E16">
-        <v>0.33972787633317569</v>
+        <v>7.7965858058161974E-2</v>
       </c>
       <c r="F16">
-        <v>0.55135867455041376</v>
+        <v>0.28201661662499822</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>7.5245867435778102E-2</v>
+        <v>1.62100239431284</v>
       </c>
       <c r="D17">
-        <v>0.1991566212270075</v>
+        <v>-0.353687539565399</v>
       </c>
       <c r="E17">
-        <v>0.26671618423813243</v>
+        <v>-0.26904411992483118</v>
       </c>
       <c r="F17">
-        <v>0.34910882026688672</v>
+        <v>-1.2538405721454773</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>-0.35070290232852686</v>
+        <v>-0.54236208810543562</v>
       </c>
       <c r="D18">
-        <v>-0.2928954490419074</v>
+        <v>-2.4845402327842971E-2</v>
       </c>
       <c r="E18">
-        <v>0.23433955268713946</v>
+        <v>-0.41536949244534521</v>
       </c>
       <c r="F18">
-        <v>-0.21167047056013749</v>
+        <v>-0.34874733011964443</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>0.67656669842477513</v>
+        <v>0.19671308566348053</v>
       </c>
       <c r="D19">
-        <v>1.1362539127863669</v>
+        <v>-0.21531120437807896</v>
       </c>
       <c r="E19">
-        <v>0.89520225352892835</v>
+        <v>8.5925972742487422E-2</v>
       </c>
       <c r="F19">
-        <v>0.70320378879765943</v>
+        <v>-0.35846845614647627</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>0.18843261371997691</v>
+        <v>-0.77986453280971368</v>
       </c>
       <c r="D20">
-        <v>3.5468776726524702E-2</v>
+        <v>-0.17741630704528819</v>
       </c>
       <c r="E20">
-        <v>0.16851858275872603</v>
+        <v>7.609436340254809E-2</v>
       </c>
       <c r="F20">
-        <v>0.93517884621662606</v>
+        <v>0.58491872133390754</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>-0.65249310116925108</v>
+        <v>-2.0643160241884395E-2</v>
       </c>
       <c r="D21">
-        <v>0.18969540653388575</v>
+        <v>0.32467730369134934</v>
       </c>
       <c r="E21">
-        <v>0.30969695475694581</v>
+        <v>0.57068402112966743</v>
       </c>
       <c r="F21">
-        <v>1.3499275795365722</v>
+        <v>0.10759743563684412</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>0.13453506928279035</v>
+        <v>0.18843261371997691</v>
       </c>
       <c r="D22">
-        <v>-0.25431053152681732</v>
+        <v>3.5468776726524702E-2</v>
       </c>
       <c r="E22">
-        <v>7.7965858058161974E-2</v>
+        <v>0.16851858275872603</v>
       </c>
       <c r="F22">
-        <v>0.28201661662499822</v>
+        <v>0.93517884621662606</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4855,1006 +4836,1008 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.62094758928550564</v>
+        <v>6.0125107487224438E-2</v>
       </c>
       <c r="E2">
-        <v>-0.64531981187642584</v>
+        <v>0.10126599757551191</v>
       </c>
       <c r="F2">
-        <v>-0.64630078127172341</v>
+        <v>0.13414201112186874</v>
       </c>
       <c r="G2">
-        <v>-0.64674596138139806</v>
+        <v>0.16407140227023453</v>
       </c>
       <c r="H2">
-        <v>-0.64621899239190284</v>
+        <v>0.19321135843894599</v>
       </c>
       <c r="I2">
-        <v>-0.64637770785169479</v>
+        <v>0.22199124993170549</v>
       </c>
       <c r="J2">
-        <v>-0.6466267148139111</v>
+        <v>0.25000071813577784</v>
       </c>
       <c r="K2">
-        <v>-0.64696838339731266</v>
+        <v>0.27655056650146292</v>
       </c>
       <c r="L2">
-        <v>-0.64688274589026096</v>
+        <v>0.30097840862463809</v>
       </c>
       <c r="M2">
-        <v>-0.64654048094859995</v>
+        <v>0.3227944366636879</v>
       </c>
       <c r="N2">
-        <v>-0.64640212240371864</v>
+        <v>0.3417293762947452</v>
       </c>
       <c r="O2">
-        <v>-0.64617261382469604</v>
+        <v>0.35772751462172414</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.25217430661441426</v>
+        <v>-7.116017180207776E-2</v>
       </c>
       <c r="E3">
-        <v>-0.27975677860402381</v>
+        <v>-0.1503788695611816</v>
       </c>
       <c r="F3">
-        <v>-0.28257384647990352</v>
+        <v>-0.23131702422421246</v>
       </c>
       <c r="G3">
-        <v>-0.28284210966192103</v>
+        <v>-0.31048375922814075</v>
       </c>
       <c r="H3">
-        <v>-0.28282180037253773</v>
+        <v>-0.38600255202304706</v>
       </c>
       <c r="I3">
-        <v>-0.28284341439117316</v>
+        <v>-0.45693930446816394</v>
       </c>
       <c r="J3">
-        <v>-0.28284634316397755</v>
+        <v>-0.52293249971866607</v>
       </c>
       <c r="K3">
-        <v>-0.28284662839676655</v>
+        <v>-0.58395471801777943</v>
       </c>
       <c r="L3">
-        <v>-0.28284667175987876</v>
+        <v>-0.64017110951967282</v>
       </c>
       <c r="M3">
-        <v>-0.28284668948652941</v>
+        <v>-0.69185028531839554</v>
       </c>
       <c r="N3">
-        <v>-0.2828466931759383</v>
+        <v>-0.73930894286029092</v>
       </c>
       <c r="O3">
-        <v>-0.28284669362590764</v>
+        <v>-0.7828780372145302</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.15818317049370612</v>
+        <v>-0.10308082675343523</v>
       </c>
       <c r="E4">
-        <v>0.22562409240628123</v>
+        <v>-0.19693717233325472</v>
       </c>
       <c r="F4">
-        <v>0.24680659428910523</v>
+        <v>-0.28209735461607477</v>
       </c>
       <c r="G4">
-        <v>0.24309705668317261</v>
+        <v>-0.35907441956254499</v>
       </c>
       <c r="H4">
-        <v>0.22601877289076233</v>
+        <v>-0.42841104083131082</v>
       </c>
       <c r="I4">
-        <v>0.20221909409236982</v>
+        <v>-0.49066382216665433</v>
       </c>
       <c r="J4">
-        <v>0.1756350885476643</v>
+        <v>-0.54638754765018338</v>
       </c>
       <c r="K4">
-        <v>0.14861982746991342</v>
+        <v>-0.59612567795153437</v>
       </c>
       <c r="L4">
-        <v>0.1225509852357356</v>
+        <v>-0.64040280476616784</v>
       </c>
       <c r="M4">
-        <v>9.819272172349236E-2</v>
+        <v>-0.67971972081226906</v>
       </c>
       <c r="N4">
-        <v>7.5920296313132907E-2</v>
+        <v>-0.71454985243432734</v>
       </c>
       <c r="O4">
-        <v>5.5864663129260972E-2</v>
+        <v>-0.74533690915468354</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.0125107487224438E-2</v>
+        <v>0.11247176983309093</v>
       </c>
       <c r="E5">
-        <v>0.10126599757551191</v>
+        <v>0.21171608871213821</v>
       </c>
       <c r="F5">
-        <v>0.13414201112186874</v>
+        <v>0.29799934021112651</v>
       </c>
       <c r="G5">
-        <v>0.16407140227023453</v>
+        <v>0.37262973559353529</v>
       </c>
       <c r="H5">
-        <v>0.19321135843894599</v>
+        <v>0.43714735348514033</v>
       </c>
       <c r="I5">
-        <v>0.22199124993170549</v>
+        <v>0.49301262227108167</v>
       </c>
       <c r="J5">
-        <v>0.25000071813577784</v>
+        <v>0.54151196171711524</v>
       </c>
       <c r="K5">
-        <v>0.27655056650146292</v>
+        <v>0.58373969111000168</v>
       </c>
       <c r="L5">
-        <v>0.30097840862463809</v>
+        <v>0.62061449819391901</v>
       </c>
       <c r="M5">
-        <v>0.3227944366636879</v>
+        <v>0.65290431921539183</v>
       </c>
       <c r="N5">
-        <v>0.3417293762947452</v>
+        <v>0.68125141966732405</v>
       </c>
       <c r="O5">
-        <v>0.35772751462172414</v>
+        <v>0.70619458831911108</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-7.116017180207776E-2</v>
+        <v>-0.19718651733062162</v>
       </c>
       <c r="E6">
-        <v>-0.1503788695611816</v>
+        <v>-0.34825103945954217</v>
       </c>
       <c r="F6">
-        <v>-0.23131702422421246</v>
+        <v>-0.45613634466065778</v>
       </c>
       <c r="G6">
-        <v>-0.31048375922814075</v>
+        <v>-0.52667046938414164</v>
       </c>
       <c r="H6">
-        <v>-0.38600255202304706</v>
+        <v>-0.56715666299275402</v>
       </c>
       <c r="I6">
-        <v>-0.45693930446816394</v>
+        <v>-0.5850237735008883</v>
       </c>
       <c r="J6">
-        <v>-0.52293249971866607</v>
+        <v>-0.58688321881643168</v>
       </c>
       <c r="K6">
-        <v>-0.58395471801777943</v>
+        <v>-0.57811222342780888</v>
       </c>
       <c r="L6">
-        <v>-0.64017110951967282</v>
+        <v>-0.56280147598900832</v>
       </c>
       <c r="M6">
-        <v>-0.69185028531839554</v>
+        <v>-0.54390689028150063</v>
       </c>
       <c r="N6">
-        <v>-0.73930894286029092</v>
+        <v>-0.52347366350202362</v>
       </c>
       <c r="O6">
-        <v>-0.7828780372145302</v>
+        <v>-0.5028596007403463</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-0.10308082675343523</v>
+        <v>-9.7210318392566997E-2</v>
       </c>
       <c r="E7">
-        <v>-0.19693717233325472</v>
+        <v>-8.7877594022683858E-2</v>
       </c>
       <c r="F7">
-        <v>-0.28209735461607477</v>
+        <v>-7.4330697080200014E-2</v>
       </c>
       <c r="G7">
-        <v>-0.35907441956254499</v>
+        <v>-6.1236790210730994E-2</v>
       </c>
       <c r="H7">
-        <v>-0.42841104083131082</v>
+        <v>-4.8489131253184423E-2</v>
       </c>
       <c r="I7">
-        <v>-0.49066382216665433</v>
+        <v>-3.6066766516448787E-2</v>
       </c>
       <c r="J7">
-        <v>-0.54638754765018338</v>
+        <v>-2.3794602810079928E-2</v>
       </c>
       <c r="K7">
-        <v>-0.59612567795153437</v>
+        <v>-1.1779658735461338E-2</v>
       </c>
       <c r="L7">
-        <v>-0.64040280476616784</v>
+        <v>-1.7822222305769288E-4</v>
       </c>
       <c r="M7">
-        <v>-0.67971972081226906</v>
+        <v>1.0728565987437766E-2</v>
       </c>
       <c r="N7">
-        <v>-0.71454985243432734</v>
+        <v>2.0653272343652995E-2</v>
       </c>
       <c r="O7">
-        <v>-0.74533690915468354</v>
+        <v>2.947576173232247E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.11247176983309093</v>
+        <v>0.15556803836695687</v>
       </c>
       <c r="E8">
-        <v>0.21171608871213821</v>
+        <v>0.29569747065094931</v>
       </c>
       <c r="F8">
-        <v>0.29799934021112651</v>
+        <v>0.42174967020896537</v>
       </c>
       <c r="G8">
-        <v>0.37262973559353529</v>
+        <v>0.53438626049641336</v>
       </c>
       <c r="H8">
-        <v>0.43714735348514033</v>
+        <v>0.63426027215857173</v>
       </c>
       <c r="I8">
-        <v>0.49301262227108167</v>
+        <v>0.72219201645485331</v>
       </c>
       <c r="J8">
-        <v>0.54151196171711524</v>
+        <v>0.79914882464420145</v>
       </c>
       <c r="K8">
-        <v>0.58373969111000168</v>
+        <v>0.86617849078452014</v>
       </c>
       <c r="L8">
-        <v>0.62061449819391901</v>
+        <v>0.92434182066205062</v>
       </c>
       <c r="M8">
-        <v>0.65290431921539183</v>
+        <v>0.97466349680829978</v>
       </c>
       <c r="N8">
-        <v>0.68125141966732405</v>
+        <v>1.0181015756820835</v>
       </c>
       <c r="O8">
-        <v>0.70619458831911108</v>
+        <v>1.0555313724217021</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>-6.3057603296256162E-2</v>
+        <v>0.20178996282040351</v>
       </c>
       <c r="E9">
-        <v>-0.1130290164458565</v>
+        <v>0.31188216762777998</v>
       </c>
       <c r="F9">
-        <v>-0.15230458790323215</v>
+        <v>0.364488211141625</v>
       </c>
       <c r="G9">
-        <v>-0.1829675997800988</v>
+        <v>0.37683532452434254</v>
       </c>
       <c r="H9">
-        <v>-0.20677811253407324</v>
+        <v>0.35842020211989134</v>
       </c>
       <c r="I9">
-        <v>-0.22518963392883026</v>
+        <v>0.31481518732012814</v>
       </c>
       <c r="J9">
-        <v>-0.23937880410527815</v>
+        <v>0.24959489421744241</v>
       </c>
       <c r="K9">
-        <v>-0.25028549295735775</v>
+        <v>0.1655513952100276</v>
       </c>
       <c r="L9">
-        <v>-0.2586521496107908</v>
+        <v>6.5543565654840208E-2</v>
       </c>
       <c r="M9">
-        <v>-0.26506034260733308</v>
+        <v>-4.6948506704685103E-2</v>
       </c>
       <c r="N9">
-        <v>-0.26996261628899637</v>
+        <v>-0.16762228846196964</v>
       </c>
       <c r="O9">
-        <v>-0.27370939103373881</v>
+        <v>-0.29154062712550571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>-0.19718651733062162</v>
+        <v>0.16510859409009504</v>
       </c>
       <c r="E10">
-        <v>-0.34825103945954217</v>
+        <v>0.29295599336855971</v>
       </c>
       <c r="F10">
-        <v>-0.45613634466065778</v>
+        <v>0.39415775158197275</v>
       </c>
       <c r="G10">
-        <v>-0.52667046938414164</v>
+        <v>0.47556256176764589</v>
       </c>
       <c r="H10">
-        <v>-0.56715666299275402</v>
+        <v>0.54183815910292155</v>
       </c>
       <c r="I10">
-        <v>-0.5850237735008883</v>
+        <v>0.59630147157834812</v>
       </c>
       <c r="J10">
-        <v>-0.58688321881643168</v>
+        <v>0.64138700890899525</v>
       </c>
       <c r="K10">
-        <v>-0.57811222342780888</v>
+        <v>0.67892861706961649</v>
       </c>
       <c r="L10">
-        <v>-0.56280147598900832</v>
+        <v>0.71033687427151615</v>
       </c>
       <c r="M10">
-        <v>-0.54390689028150063</v>
+        <v>0.73671553140231538</v>
       </c>
       <c r="N10">
-        <v>-0.52347366350202362</v>
+        <v>0.75894053456205501</v>
       </c>
       <c r="O10">
-        <v>-0.5028596007403463</v>
+        <v>0.77771527152471331</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.3144414185177697E-2</v>
+        <v>0.15818317049370612</v>
       </c>
       <c r="E11">
-        <v>0.13786926364440322</v>
+        <v>0.22562409240628123</v>
       </c>
       <c r="F11">
-        <v>0.19545309259662158</v>
+        <v>0.24680659428910523</v>
       </c>
       <c r="G11">
-        <v>0.24691949775764177</v>
+        <v>0.24309705668317261</v>
       </c>
       <c r="H11">
-        <v>0.29310036633174019</v>
+        <v>0.22601877289076233</v>
       </c>
       <c r="I11">
-        <v>0.33468064910912942</v>
+        <v>0.20221909409236982</v>
       </c>
       <c r="J11">
-        <v>0.37223074820654334</v>
+        <v>0.1756350885476643</v>
       </c>
       <c r="K11">
-        <v>0.40623045389853962</v>
+        <v>0.14861982746991342</v>
       </c>
       <c r="L11">
-        <v>0.43708692672308991</v>
+        <v>0.1225509852357356</v>
       </c>
       <c r="M11">
-        <v>0.46514842524492195</v>
+        <v>9.819272172349236E-2</v>
       </c>
       <c r="N11">
-        <v>0.49071493176029213</v>
+        <v>7.5920296313132907E-2</v>
       </c>
       <c r="O11">
-        <v>0.51404648371380757</v>
+        <v>5.5864663129260972E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>-9.7210318392566997E-2</v>
+        <v>0.16708770409047768</v>
       </c>
       <c r="E12">
-        <v>-8.7877594022683858E-2</v>
+        <v>0.25256171722631549</v>
       </c>
       <c r="F12">
-        <v>-7.4330697080200014E-2</v>
+        <v>0.29810603630905241</v>
       </c>
       <c r="G12">
-        <v>-6.1236790210730994E-2</v>
+        <v>0.32286605734705642</v>
       </c>
       <c r="H12">
-        <v>-4.8489131253184423E-2</v>
+        <v>0.33646230987515124</v>
       </c>
       <c r="I12">
-        <v>-3.6066766516448787E-2</v>
+        <v>0.34398746615852438</v>
       </c>
       <c r="J12">
-        <v>-2.3794602810079928E-2</v>
+        <v>0.34817725943559608</v>
       </c>
       <c r="K12">
-        <v>-1.1779658735461338E-2</v>
+        <v>0.3505315618129754</v>
       </c>
       <c r="L12">
-        <v>-1.7822222305769288E-4</v>
+        <v>0.35187549836044552</v>
       </c>
       <c r="M12">
-        <v>1.0728565987437766E-2</v>
+        <v>0.35266333751880585</v>
       </c>
       <c r="N12">
-        <v>2.0653272343652995E-2</v>
+        <v>0.35314454089215019</v>
       </c>
       <c r="O12">
-        <v>2.947576173232247E-2</v>
+        <v>0.35345576386562971</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.15556803836695687</v>
+        <v>2.882117785576177E-2</v>
       </c>
       <c r="E13">
-        <v>0.29569747065094931</v>
+        <v>4.795947858333427E-2</v>
       </c>
       <c r="F13">
-        <v>0.42174967020896537</v>
+        <v>5.5138397185775956E-2</v>
       </c>
       <c r="G13">
-        <v>0.53438626049641336</v>
+        <v>5.0881911952497028E-2</v>
       </c>
       <c r="H13">
-        <v>0.63426027215857173</v>
+        <v>3.6749111720602912E-2</v>
       </c>
       <c r="I13">
-        <v>0.72219201645485331</v>
+        <v>1.4644291050713965E-2</v>
       </c>
       <c r="J13">
-        <v>0.79914882464420145</v>
+        <v>-1.3510770478580457E-2</v>
       </c>
       <c r="K13">
-        <v>0.86617849078452014</v>
+        <v>-4.5948744857648015E-2</v>
       </c>
       <c r="L13">
-        <v>0.92434182066205062</v>
+        <v>-8.1124847268557204E-2</v>
       </c>
       <c r="M13">
-        <v>0.97466349680829978</v>
+        <v>-0.11773640795112916</v>
       </c>
       <c r="N13">
-        <v>1.0181015756820835</v>
+        <v>-0.15471821571878977</v>
       </c>
       <c r="O13">
-        <v>1.0555313724217021</v>
+        <v>-0.19122675163066438</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.20178996282040351</v>
+        <v>0.69114870431254449</v>
       </c>
       <c r="E14">
-        <v>0.31188216762777998</v>
+        <v>0.97495201658538466</v>
       </c>
       <c r="F14">
-        <v>0.364488211141625</v>
+        <v>1.1034549419945039</v>
       </c>
       <c r="G14">
-        <v>0.37683532452434254</v>
+        <v>1.1533252413740431</v>
       </c>
       <c r="H14">
-        <v>0.35842020211989134</v>
+        <v>1.1576539453030326</v>
       </c>
       <c r="I14">
-        <v>0.31481518732012814</v>
+        <v>1.1335022582537841</v>
       </c>
       <c r="J14">
-        <v>0.24959489421744241</v>
+        <v>1.0907029503102834</v>
       </c>
       <c r="K14">
-        <v>0.1655513952100276</v>
+        <v>1.0353943152791993</v>
       </c>
       <c r="L14">
-        <v>6.5543565654840208E-2</v>
+        <v>0.97164836649090713</v>
       </c>
       <c r="M14">
-        <v>-4.6948506704685103E-2</v>
+        <v>0.9023015662881364</v>
       </c>
       <c r="N14">
-        <v>-0.16762228846196964</v>
+        <v>0.82941043755914157</v>
       </c>
       <c r="O14">
-        <v>-0.29154062712550571</v>
+        <v>0.75451629384667473</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1672785545092027</v>
+        <v>0.13719124179541542</v>
       </c>
       <c r="E15">
-        <v>0.26047119188891099</v>
+        <v>0.33078736596318736</v>
       </c>
       <c r="F15">
-        <v>0.31445552636987739</v>
+        <v>0.5130006713100117</v>
       </c>
       <c r="G15">
-        <v>0.34639634140844389</v>
+        <v>0.67024045952875255</v>
       </c>
       <c r="H15">
-        <v>0.36551828329689606</v>
+        <v>0.80116579780910124</v>
       </c>
       <c r="I15">
-        <v>0.37705275007543215</v>
+        <v>0.90813691691589404</v>
       </c>
       <c r="J15">
-        <v>0.38403822430368806</v>
+        <v>0.99460047777762628</v>
       </c>
       <c r="K15">
-        <v>0.38827924312547446</v>
+        <v>1.0640042381691437</v>
       </c>
       <c r="L15">
-        <v>0.39085799320711989</v>
+        <v>1.1194445383973788</v>
       </c>
       <c r="M15">
-        <v>0.39242757211665702</v>
+        <v>1.1635656321161427</v>
       </c>
       <c r="N15">
-        <v>0.39338343496164219</v>
+        <v>1.1985691641892209</v>
       </c>
       <c r="O15">
-        <v>0.39396571986694728</v>
+        <v>1.2262620760693883</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.16510859409009504</v>
+        <v>-5.7111961821752405E-2</v>
       </c>
       <c r="E16">
-        <v>0.29295599336855971</v>
+        <v>-5.788210376935593E-2</v>
       </c>
       <c r="F16">
-        <v>0.39415775158197275</v>
+        <v>-2.1594339811055539E-2</v>
       </c>
       <c r="G16">
-        <v>0.47556256176764589</v>
+        <v>3.3328159946529046E-2</v>
       </c>
       <c r="H16">
-        <v>0.54183815910292155</v>
+        <v>9.3649132755352138E-2</v>
       </c>
       <c r="I16">
-        <v>0.59630147157834812</v>
+        <v>0.15126776778573348</v>
       </c>
       <c r="J16">
-        <v>0.64138700890899525</v>
+        <v>0.20191097435841232</v>
       </c>
       <c r="K16">
-        <v>0.67892861706961649</v>
+        <v>0.2438092664196021</v>
       </c>
       <c r="L16">
-        <v>0.71033687427151615</v>
+        <v>0.27671999274835546</v>
       </c>
       <c r="M16">
-        <v>0.73671553140231538</v>
+        <v>0.30129359021133328</v>
       </c>
       <c r="N16">
-        <v>0.75894053456205501</v>
+        <v>0.31867282560925547</v>
       </c>
       <c r="O16">
-        <v>0.77771527152471331</v>
+        <v>0.33022485869868545</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.16708770409047768</v>
+        <v>-0.62094758928550564</v>
       </c>
       <c r="E17">
-        <v>0.25256171722631549</v>
+        <v>-0.64531981187642584</v>
       </c>
       <c r="F17">
-        <v>0.29810603630905241</v>
+        <v>-0.64630078127172341</v>
       </c>
       <c r="G17">
-        <v>0.32286605734705642</v>
+        <v>-0.64674596138139806</v>
       </c>
       <c r="H17">
-        <v>0.33646230987515124</v>
+        <v>-0.64621899239190284</v>
       </c>
       <c r="I17">
-        <v>0.34398746615852438</v>
+        <v>-0.64637770785169479</v>
       </c>
       <c r="J17">
-        <v>0.34817725943559608</v>
+        <v>-0.6466267148139111</v>
       </c>
       <c r="K17">
-        <v>0.3505315618129754</v>
+        <v>-0.64696838339731266</v>
       </c>
       <c r="L17">
-        <v>0.35187549836044552</v>
+        <v>-0.64688274589026096</v>
       </c>
       <c r="M17">
-        <v>0.35266333751880585</v>
+        <v>-0.64654048094859995</v>
       </c>
       <c r="N17">
-        <v>0.35314454089215019</v>
+        <v>-0.64640212240371864</v>
       </c>
       <c r="O17">
-        <v>0.35345576386562971</v>
+        <v>-0.64617261382469604</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.882117785576177E-2</v>
+        <v>-0.25217430661441426</v>
       </c>
       <c r="E18">
-        <v>4.795947858333427E-2</v>
+        <v>-0.27975677860402381</v>
       </c>
       <c r="F18">
-        <v>5.5138397185775956E-2</v>
+        <v>-0.28257384647990352</v>
       </c>
       <c r="G18">
-        <v>5.0881911952497028E-2</v>
+        <v>-0.28284210966192103</v>
       </c>
       <c r="H18">
-        <v>3.6749111720602912E-2</v>
+        <v>-0.28282180037253773</v>
       </c>
       <c r="I18">
-        <v>1.4644291050713965E-2</v>
+        <v>-0.28284341439117316</v>
       </c>
       <c r="J18">
-        <v>-1.3510770478580457E-2</v>
+        <v>-0.28284634316397755</v>
       </c>
       <c r="K18">
-        <v>-4.5948744857648015E-2</v>
+        <v>-0.28284662839676655</v>
       </c>
       <c r="L18">
-        <v>-8.1124847268557204E-2</v>
+        <v>-0.28284667175987876</v>
       </c>
       <c r="M18">
-        <v>-0.11773640795112916</v>
+        <v>-0.28284668948652941</v>
       </c>
       <c r="N18">
-        <v>-0.15471821571878977</v>
+        <v>-0.2828466931759383</v>
       </c>
       <c r="O18">
-        <v>-0.19122675163066438</v>
+        <v>-0.28284669362590764</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.69114870431254449</v>
+        <v>-6.3057603296256162E-2</v>
       </c>
       <c r="E19">
-        <v>0.97495201658538466</v>
+        <v>-0.1130290164458565</v>
       </c>
       <c r="F19">
-        <v>1.1034549419945039</v>
+        <v>-0.15230458790323215</v>
       </c>
       <c r="G19">
-        <v>1.1533252413740431</v>
+        <v>-0.1829675997800988</v>
       </c>
       <c r="H19">
-        <v>1.1576539453030326</v>
+        <v>-0.20677811253407324</v>
       </c>
       <c r="I19">
-        <v>1.1335022582537841</v>
+        <v>-0.22518963392883026</v>
       </c>
       <c r="J19">
-        <v>1.0907029503102834</v>
+        <v>-0.23937880410527815</v>
       </c>
       <c r="K19">
-        <v>1.0353943152791993</v>
+        <v>-0.25028549295735775</v>
       </c>
       <c r="L19">
-        <v>0.97164836649090713</v>
+        <v>-0.2586521496107908</v>
       </c>
       <c r="M19">
-        <v>0.9023015662881364</v>
+        <v>-0.26506034260733308</v>
       </c>
       <c r="N19">
-        <v>0.82941043755914157</v>
+        <v>-0.26996261628899637</v>
       </c>
       <c r="O19">
-        <v>0.75451629384667473</v>
+        <v>-0.27370939103373881</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.22786932707314567</v>
+        <v>7.3144414185177697E-2</v>
       </c>
       <c r="E20">
-        <v>0.37594334715912125</v>
+        <v>0.13786926364440322</v>
       </c>
       <c r="F20">
-        <v>0.47647020251642158</v>
+        <v>0.19545309259662158</v>
       </c>
       <c r="G20">
-        <v>0.54657760357361718</v>
+        <v>0.24691949775764177</v>
       </c>
       <c r="H20">
-        <v>0.59633410145618959</v>
+        <v>0.29310036633174019</v>
       </c>
       <c r="I20">
-        <v>0.63207108847366356</v>
+        <v>0.33468064910912942</v>
       </c>
       <c r="J20">
-        <v>0.6579512529587207</v>
+        <v>0.37223074820654334</v>
       </c>
       <c r="K20">
-        <v>0.67680305832576926</v>
+        <v>0.40623045389853962</v>
       </c>
       <c r="L20">
-        <v>0.69059282908011799</v>
+        <v>0.43708692672308991</v>
       </c>
       <c r="M20">
-        <v>0.70071044343086342</v>
+        <v>0.46514842524492195</v>
       </c>
       <c r="N20">
-        <v>0.70815012568905022</v>
+        <v>0.49071493176029213</v>
       </c>
       <c r="O20">
-        <v>0.71362944409464157</v>
+        <v>0.51404648371380757</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.13719124179541542</v>
+        <v>0.1672785545092027</v>
       </c>
       <c r="E21">
-        <v>0.33078736596318736</v>
+        <v>0.26047119188891099</v>
       </c>
       <c r="F21">
-        <v>0.5130006713100117</v>
+        <v>0.31445552636987739</v>
       </c>
       <c r="G21">
-        <v>0.67024045952875255</v>
+        <v>0.34639634140844389</v>
       </c>
       <c r="H21">
-        <v>0.80116579780910124</v>
+        <v>0.36551828329689606</v>
       </c>
       <c r="I21">
-        <v>0.90813691691589404</v>
+        <v>0.37705275007543215</v>
       </c>
       <c r="J21">
-        <v>0.99460047777762628</v>
+        <v>0.38403822430368806</v>
       </c>
       <c r="K21">
-        <v>1.0640042381691437</v>
+        <v>0.38827924312547446</v>
       </c>
       <c r="L21">
-        <v>1.1194445383973788</v>
+        <v>0.39085799320711989</v>
       </c>
       <c r="M21">
-        <v>1.1635656321161427</v>
+        <v>0.39242757211665702</v>
       </c>
       <c r="N21">
-        <v>1.1985691641892209</v>
+        <v>0.39338343496164219</v>
       </c>
       <c r="O21">
-        <v>1.2262620760693883</v>
+        <v>0.39396571986694728</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>-5.7111961821752405E-2</v>
+        <v>0.22786932707314567</v>
       </c>
       <c r="E22">
-        <v>-5.788210376935593E-2</v>
+        <v>0.37594334715912125</v>
       </c>
       <c r="F22">
-        <v>-2.1594339811055539E-2</v>
+        <v>0.47647020251642158</v>
       </c>
       <c r="G22">
-        <v>3.3328159946529046E-2</v>
+        <v>0.54657760357361718</v>
       </c>
       <c r="H22">
-        <v>9.3649132755352138E-2</v>
+        <v>0.59633410145618959</v>
       </c>
       <c r="I22">
-        <v>0.15126776778573348</v>
+        <v>0.63207108847366356</v>
       </c>
       <c r="J22">
-        <v>0.20191097435841232</v>
+        <v>0.6579512529587207</v>
       </c>
       <c r="K22">
-        <v>0.2438092664196021</v>
+        <v>0.67680305832576926</v>
       </c>
       <c r="L22">
-        <v>0.27671999274835546</v>
+        <v>0.69059282908011799</v>
       </c>
       <c r="M22">
-        <v>0.30129359021133328</v>
+        <v>0.70071044343086342</v>
       </c>
       <c r="N22">
-        <v>0.31867282560925547</v>
+        <v>0.70815012568905022</v>
       </c>
       <c r="O22">
-        <v>0.33022485869868545</v>
+        <v>0.71362944409464157</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5869,250 +5852,252 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.34657359027997264</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.23104906018664842</v>
+        <v>2.5672117798516494E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3.0136833937388925E-2</v>
+        <v>1.7328679513998631E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.7179999999999999E-2</v>
+        <v>1.1002336199364211E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2.5672117798516494E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>1.7328679513998631E-2</v>
+        <v>7.7016353395549478E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>1.1002336199364211E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.7179999999999999E-2</v>
+        <v>6.9314718055994526E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>2.7179999999999999E-2</v>
+        <v>1.6503504299046318E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>7.453195489891885E-3</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>7.7016353395549478E-2</v>
+        <v>5.7762265046662105E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>2.7179999999999999E-2</v>
+        <v>1.332975347230664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>6.9314718055994526E-2</v>
+        <v>1.2602676010180823E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>4.9510512897138946E-2</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>1.6503504299046318E-2</v>
+        <v>3.3007008598092635E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>5.7762265046662105E-2</v>
+        <v>0.34657359027997264</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>1.332975347230664E-2</v>
+        <v>0.23104906018664842</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>1.2602676010180823E-2</v>
+        <v>2.7179999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>3.0136833937388925E-2</v>
+        <v>7.453195489891885E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>3.0136833937388925E-2</v>
+        <v>4.9510512897138946E-2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>3.3007008598092635E-2</v>
+        <v>3.0136833937388925E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -6127,245 +6112,242 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.44288657618668342</v>
+        <v>6.242669444439939E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>0.37982964972805122</v>
+        <v>0.10522676713463036</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>0.17120461804021761</v>
+        <v>2.0858239697015505E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>6.242669444439939E-2</v>
+        <v>3.3546638513152101E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.10522676713463036</v>
+        <v>3.9619455373539288E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>2.0858239697015505E-2</v>
+        <v>0.18601110490312825</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>3.3546638513152101E-2</v>
+        <v>0.13123236983890324</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>4.4591654910338729E-2</v>
+        <v>0.20777488757745535</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>3.9619455373539288E-2</v>
+        <v>5.4767494999982819E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>2.5700240496800562E-2</v>
+        <v>0.17120461804021761</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.18601110490312825</v>
+        <v>0.13383936151722145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>0.13123236983890324</v>
+        <v>4.6082765886743558E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.20777488757745535</v>
+        <v>0.6910371803648</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C15">
-        <v>0.13019562378812793</v>
+        <v>0.1741844147037204</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>5.4767494999982819E-2</v>
+        <v>7.9007782962686582E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>0.13383936151722145</v>
+        <v>0.44288657618668342</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>4.6082765886743558E-2</v>
+        <v>0.37982964972805122</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>0.6910371803648</v>
+        <v>4.4591654910338729E-2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>9.9909635642115913E-2</v>
+        <v>2.5700240496800562E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>0.1741844147037204</v>
+        <v>0.13019562378812793</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>7.9007782962686582E-2</v>
+        <v>9.9909635642115913E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
-    <sortCondition ref="B2:B22"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6395,103 +6377,101 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>48</v>
+      <c r="A1" t="s">
+        <v>47</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>41</v>
       </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6536,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -6559,7 +6539,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -6616,10 +6596,10 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -6627,7 +6607,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6636,20 +6616,20 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
@@ -6672,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6695,7 +6675,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6728,7 +6708,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -6758,12 +6738,12 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6790,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -6805,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -6831,7 +6811,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6867,19 +6847,19 @@
         <v>0</v>
       </c>
       <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6899,7 +6879,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6926,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -6947,19 +6927,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -6967,7 +6947,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -6991,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -7030,12 +7010,12 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -7062,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7080,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -7103,7 +7083,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -7130,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -7171,22 +7151,22 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -7239,10 +7219,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -7263,7 +7243,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -7302,12 +7282,12 @@
         <v>0</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7334,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7346,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -7364,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -7375,7 +7355,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -7426,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -7438,18 +7418,18 @@
         <v>0</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7467,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -7479,13 +7459,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -7511,7 +7491,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -7538,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7579,7 +7559,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -7591,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -7636,18 +7616,18 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7692,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -7715,7 +7695,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -7783,13 +7763,13 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -7840,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -7851,7 +7831,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7863,10 +7843,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -7890,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -7902,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -7911,16 +7891,13 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:V22">
-    <sortCondition ref="B1:V1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>